--- a/Toxicology-associated_targets.xlsx
+++ b/Toxicology-associated_targets.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="6380" windowWidth="35880" windowHeight="20360" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="4440" yWindow="7160" windowWidth="35880" windowHeight="20360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="747">
   <si>
     <t>ADORA2A</t>
   </si>
@@ -651,9 +651,6 @@
   </si>
   <si>
     <t>Clone</t>
-  </si>
-  <si>
-    <t>Gene(s)</t>
   </si>
   <si>
     <t>INa</t>
@@ -3314,8 +3311,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3608,7 +3609,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3693,6 +3694,8 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3777,6 +3780,8 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4108,7 +4113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
@@ -4134,10 +4139,10 @@
         <v>74</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
@@ -4159,7 +4164,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -4176,7 +4181,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -4193,7 +4198,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -4210,7 +4215,7 @@
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -4227,7 +4232,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -4244,7 +4249,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -4363,7 +4368,7 @@
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -4380,7 +4385,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -4397,7 +4402,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -4414,7 +4419,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -4431,7 +4436,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -4448,7 +4453,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -4519,7 +4524,7 @@
         <v>139</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>121</v>
@@ -4684,156 +4689,156 @@
         <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>412</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>423</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>433</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -4881,7 +4886,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -4897,15 +4902,15 @@
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -4913,18 +4918,18 @@
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1">
@@ -4937,7 +4942,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>53</v>
@@ -4945,23 +4950,23 @@
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>456</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>38</v>
@@ -4969,10 +4974,10 @@
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>434</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
@@ -4985,7 +4990,7 @@
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>9</v>
@@ -5001,15 +5006,15 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>22</v>
@@ -5017,10 +5022,10 @@
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>454</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5052,365 +5057,365 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>461</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>486</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1"/>
@@ -5453,7 +5458,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>29</v>
@@ -5464,7 +5469,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
@@ -5475,7 +5480,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>30</v>
@@ -5486,7 +5491,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>1</v>
@@ -5497,7 +5502,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>31</v>
@@ -5508,7 +5513,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>2</v>
@@ -5519,7 +5524,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -5530,7 +5535,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>33</v>
@@ -5541,7 +5546,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>3</v>
@@ -5552,7 +5557,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>4</v>
@@ -5563,7 +5568,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>34</v>
@@ -5574,7 +5579,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>35</v>
@@ -5585,7 +5590,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>36</v>
@@ -5618,7 +5623,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>5</v>
@@ -5629,7 +5634,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>7</v>
@@ -5640,7 +5645,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>38</v>
@@ -5654,7 +5659,7 @@
         <v>179</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>180</v>
@@ -5662,7 +5667,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>39</v>
@@ -5673,7 +5678,7 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>13</v>
@@ -5684,7 +5689,7 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>14</v>
@@ -5695,7 +5700,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>40</v>
@@ -5706,7 +5711,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>41</v>
@@ -5739,7 +5744,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>43</v>
@@ -5750,7 +5755,7 @@
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>21</v>
@@ -5761,7 +5766,7 @@
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>44</v>
@@ -5772,7 +5777,7 @@
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>17</v>
@@ -5783,7 +5788,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>45</v>
@@ -5816,7 +5821,7 @@
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>18</v>
@@ -5827,7 +5832,7 @@
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>47</v>
@@ -5838,18 +5843,18 @@
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="A37" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -5867,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
@@ -5888,147 +5893,147 @@
         <v>49</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>615</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>616</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" t="s">
         <v>619</v>
-      </c>
-      <c r="E2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E4" t="s">
         <v>624</v>
-      </c>
-      <c r="E4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
         <v>626</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>627</v>
-      </c>
-      <c r="E5" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" t="s">
         <v>630</v>
-      </c>
-      <c r="E6" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E7" t="s">
         <v>633</v>
-      </c>
-      <c r="E7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E8" t="s">
         <v>636</v>
-      </c>
-      <c r="E8" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>638</v>
+      </c>
+      <c r="E9" t="s">
         <v>639</v>
-      </c>
-      <c r="E9" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E10" t="s">
         <v>642</v>
-      </c>
-      <c r="E10" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D11" t="s">
         <v>644</v>
       </c>
-      <c r="B11" t="s">
-        <v>599</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>645</v>
-      </c>
-      <c r="E11" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6039,445 +6044,445 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>650</v>
+      </c>
+      <c r="E14" t="s">
         <v>651</v>
-      </c>
-      <c r="E14" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>653</v>
+      </c>
+      <c r="E15" t="s">
         <v>654</v>
-      </c>
-      <c r="E15" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
+        <v>656</v>
+      </c>
+      <c r="E16" t="s">
         <v>657</v>
-      </c>
-      <c r="E16" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
+        <v>659</v>
+      </c>
+      <c r="E18" t="s">
         <v>660</v>
-      </c>
-      <c r="E18" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E19" t="s">
         <v>663</v>
-      </c>
-      <c r="E19" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>667</v>
+      </c>
+      <c r="E21" t="s">
         <v>668</v>
-      </c>
-      <c r="E21" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" t="s">
         <v>577</v>
       </c>
-      <c r="B22" t="s">
-        <v>578</v>
-      </c>
       <c r="E22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
+        <v>671</v>
+      </c>
+      <c r="E23" t="s">
         <v>672</v>
-      </c>
-      <c r="E23" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>673</v>
+      </c>
+      <c r="B24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" t="s">
         <v>674</v>
-      </c>
-      <c r="B24" t="s">
-        <v>579</v>
-      </c>
-      <c r="E24" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>676</v>
+      </c>
+      <c r="E25" t="s">
         <v>677</v>
-      </c>
-      <c r="E25" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
+        <v>679</v>
+      </c>
+      <c r="E26" t="s">
         <v>680</v>
-      </c>
-      <c r="E26" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
+        <v>684</v>
+      </c>
+      <c r="E28" t="s">
         <v>685</v>
-      </c>
-      <c r="E28" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B29" t="s">
         <v>687</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>688</v>
-      </c>
-      <c r="D29" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
+        <v>692</v>
+      </c>
+      <c r="E31" t="s">
         <v>693</v>
-      </c>
-      <c r="E31" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>695</v>
+      </c>
+      <c r="E32" t="s">
         <v>696</v>
-      </c>
-      <c r="E32" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="D33" t="s">
+        <v>698</v>
+      </c>
+      <c r="E33" t="s">
         <v>699</v>
-      </c>
-      <c r="E33" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>700</v>
+      </c>
+      <c r="B34" t="s">
         <v>701</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>702</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>703</v>
-      </c>
-      <c r="E34" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>706</v>
+      </c>
+      <c r="B36" t="s">
         <v>707</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>708</v>
-      </c>
-      <c r="C36" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>709</v>
+      </c>
+      <c r="B37" t="s">
         <v>710</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>711</v>
-      </c>
-      <c r="C37" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>712</v>
+      </c>
+      <c r="B38" t="s">
         <v>713</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>714</v>
-      </c>
-      <c r="C38" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>715</v>
+      </c>
+      <c r="B39" t="s">
+        <v>740</v>
+      </c>
+      <c r="C39" t="s">
         <v>716</v>
-      </c>
-      <c r="B39" t="s">
-        <v>741</v>
-      </c>
-      <c r="C39" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>717</v>
+      </c>
+      <c r="B40" t="s">
         <v>718</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>719</v>
-      </c>
-      <c r="C40" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>722</v>
+      </c>
+      <c r="B42" t="s">
         <v>723</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>724</v>
-      </c>
-      <c r="C42" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>725</v>
+      </c>
+      <c r="B43" t="s">
         <v>726</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>727</v>
-      </c>
-      <c r="C43" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>732</v>
+      </c>
+      <c r="B46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" t="s">
         <v>733</v>
-      </c>
-      <c r="B46" t="s">
-        <v>449</v>
-      </c>
-      <c r="C46" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>734</v>
+      </c>
+      <c r="B47" t="s">
         <v>735</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>736</v>
-      </c>
-      <c r="C47" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>737</v>
+      </c>
+      <c r="B48" t="s">
         <v>738</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>739</v>
-      </c>
-      <c r="C48" t="s">
-        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6526,7 +6531,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -6535,7 +6540,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>52</v>
@@ -6544,7 +6549,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -6553,7 +6558,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>55</v>
@@ -6562,7 +6567,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>58</v>
@@ -6598,7 +6603,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>1</v>
@@ -6607,7 +6612,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>32</v>
@@ -6625,7 +6630,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>34</v>
@@ -6634,16 +6639,16 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>3</v>
@@ -6652,7 +6657,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
@@ -6669,7 +6674,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>5</v>
@@ -6677,7 +6682,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>53</v>
@@ -6701,7 +6706,7 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -6725,7 +6730,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>14</v>
@@ -6741,7 +6746,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>66</v>
@@ -6749,7 +6754,7 @@
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>22</v>
@@ -6804,7 +6809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6818,7 +6823,7 @@
         <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>202</v>
@@ -6835,262 +6840,262 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7108,9 +7113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7124,378 +7129,378 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>282</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>743</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7535,66 +7540,66 @@
         <v>49</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7634,234 +7639,234 @@
         <v>49</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>340</v>
-      </c>
       <c r="C11" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>386</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -7902,170 +7907,170 @@
     </row>
     <row r="2" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>391</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>392</v>
       </c>
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>394</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>395</v>
       </c>
       <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>399</v>
       </c>
       <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>400</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>401</v>
       </c>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>404</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>405</v>
       </c>
       <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>407</v>
       </c>
       <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>379</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>339</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>372</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>359</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>363</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>369</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>607</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>335</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>609</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="44" customFormat="1">
       <c r="A21" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>611</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
